--- a/documents/SCRUM Templates/BlocksListTemplate.xlsx
+++ b/documents/SCRUM Templates/BlocksListTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanks\Documents\-=_Schule_=-\4BHIF\SYP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanks\Desktop\documents\Chitter\documents\SCRUM Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -356,6 +356,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -367,10 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,20 +667,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,20 +1075,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1193,178 +1193,178 @@
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
